--- a/journaux_activite/Cahier personnel d'activité Valentin.xlsx
+++ b/journaux_activite/Cahier personnel d'activité Valentin.xlsx
@@ -1,61 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Documents\Weird Fishes\MP_SFL_2019_G3_Weird_Fishes\journaux_activite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C1A1F-5EDB-490A-8621-D96B7A0F7072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D680BB-5AB4-444D-B05B-4E6946E81B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Recherches d'informations sur la création d'une barre de vie sur des forums</t>
-  </si>
-  <si>
-    <t>Visionnage de quelques vidéos traitant du sujet (chaîne YouTube : Brackeys)</t>
-  </si>
-  <si>
-    <t>1,5h</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>Tentative de résolution de problèmes d'Unity</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>Début de la création du système de vie sur Unity (en suivant étape par étape la vidéo, et en adaptant à notre cas)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+  <si>
+    <t>Planification G3 Weird Fishes</t>
+  </si>
+  <si>
+    <t>Semaine</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>Étudiant(s) en charge</t>
+  </si>
+  <si>
+    <t>Terminée</t>
+  </si>
+  <si>
+    <t>Corriger le cahier des charges</t>
+  </si>
+  <si>
+    <t>Malo &amp; Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui </t>
+  </si>
+  <si>
+    <t>Rattraper les taches non faites</t>
+  </si>
+  <si>
+    <t>Marius &amp; Malo &amp; Valentin</t>
+  </si>
+  <si>
+    <t>Effectuer le script de "Contrôle"</t>
+  </si>
+  <si>
+    <t>Effectuer le script de "Mouvement"</t>
+  </si>
+  <si>
+    <t>Malo &amp; Valentin &amp; Marius</t>
+  </si>
+  <si>
+    <t>Script de déplacement à modifier</t>
+  </si>
+  <si>
+    <t>Valentin &amp; Malo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du script "système de vie" </t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Recherches d'informations sur la création d'une barre de vie sur des forums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Visionnage de quelques vidéos traitant du sujet (chaîne YouTube : Brackeys)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Début de la création du système de vie sur Unity (en suivant étape par étape la vidéo, et en adaptant à notre cas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Tentative de résolution de problèmes d'Unity, création en pixel art de la barre de vie et de son évolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Problèmes résolus, affichage de la barre de vie réussi (ou barre de "raison")</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Gestion de la mort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Création de l'écran de "Game Over"</t>
+  </si>
+  <si>
+    <t>4,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +134,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,18 +196,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -132,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -179,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -214,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,50 +588,793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="114.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
         <v>6</v>
       </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>7</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="19"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="19"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A32:A44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA1F10FA3C43C640B332C766DB2EF626" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="34665f86972e4a4543587f2081d0c343">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64fe54f8-d70b-4965-b0be-01f8f3589a3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e705605d03b73cf19523a443fc8994c" ns2:_="">
+    <xsd:import namespace="64fe54f8-d70b-4965-b0be-01f8f3589a3b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="64fe54f8-d70b-4965-b0be-01f8f3589a3b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{479B6FBB-881D-490F-81F1-A2B484DCF3A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D72068D6-D0F2-4652-A68B-5B16F1B09443}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="64fe54f8-d70b-4965-b0be-01f8f3589a3b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7AE4B74-71BC-453A-8415-ED91EE087DA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/journaux_activite/Cahier personnel d'activité Valentin.xlsx
+++ b/journaux_activite/Cahier personnel d'activité Valentin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Documents\Weird Fishes\MP_SFL_2019_G3_Weird_Fishes\journaux_activite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D680BB-5AB4-444D-B05B-4E6946E81B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490BC49B-A2DA-4195-9C12-605AB6E82FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Planification G3 Weird Fishes</t>
   </si>
@@ -120,13 +120,37 @@
   </si>
   <si>
     <t>4,5</t>
+  </si>
+  <si>
+    <t>Poursuivre le système de vie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Faire réagir dégats/baisse de la barre de vie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Créer l'évènement "mort" et afficher écran Game Over</t>
+  </si>
+  <si>
+    <t>Afficher le background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Ajout du statut Current Health et Max Health dans le script "Health Bar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Ajout de la condition if(Current Health == 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Création du scripth "Health Bar"</t>
+  </si>
+  <si>
+    <t>6,5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +173,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +218,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -215,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -273,6 +316,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,63 +897,90 @@
       <c r="A19" s="19">
         <v>5</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="10"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1172,12 +1251,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1339,15 +1415,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{479B6FBB-881D-490F-81F1-A2B484DCF3A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7AE4B74-71BC-453A-8415-ED91EE087DA5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1371,10 +1451,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7AE4B74-71BC-453A-8415-ED91EE087DA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{479B6FBB-881D-490F-81F1-A2B484DCF3A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>